--- a/pred_ohlcv/54_23/2019-10-17 HDAC ohlcv.xlsx
+++ b/pred_ohlcv/54_23/2019-10-17 HDAC ohlcv.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -415,10 +415,10 @@
         <v>37.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -438,10 +438,10 @@
         <v>37.4</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -464,7 +464,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -484,10 +484,10 @@
         <v>37.4</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -507,10 +507,10 @@
         <v>37.5</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -602,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -691,10 +691,10 @@
         <v>37.3</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -714,10 +714,10 @@
         <v>37</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -740,7 +740,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -763,7 +763,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -786,7 +786,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -809,7 +809,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -829,10 +829,10 @@
         <v>36.6</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -855,7 +855,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -878,7 +878,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -898,10 +898,10 @@
         <v>36.7</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -924,7 +924,7 @@
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -944,10 +944,10 @@
         <v>36.7</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -970,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -993,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1013,10 +1013,10 @@
         <v>37.3</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1128,10 +1128,10 @@
         <v>37.2</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1151,10 +1151,10 @@
         <v>37.2</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1174,10 +1174,10 @@
         <v>36.9</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1197,10 +1197,10 @@
         <v>36.8</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1220,10 +1220,10 @@
         <v>36.8</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1243,10 +1243,10 @@
         <v>36.6</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1266,10 +1266,10 @@
         <v>36.9</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1289,10 +1289,10 @@
         <v>36.5</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1315,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1335,10 +1335,10 @@
         <v>36.9</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1358,10 +1358,10 @@
         <v>36.6</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1381,10 +1381,10 @@
         <v>36.9</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1404,10 +1404,10 @@
         <v>36.6</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1427,10 +1427,10 @@
         <v>36.9</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1450,10 +1450,10 @@
         <v>36.6</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2373,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2534,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
@@ -2856,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
@@ -3244,7 +3244,7 @@
         <v>38.3</v>
       </c>
       <c r="F125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -3267,7 +3267,7 @@
         <v>38</v>
       </c>
       <c r="F126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -3359,7 +3359,7 @@
         <v>38.1</v>
       </c>
       <c r="F130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -3405,7 +3405,7 @@
         <v>37.5</v>
       </c>
       <c r="F132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -3428,7 +3428,7 @@
         <v>37.9</v>
       </c>
       <c r="F133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -3451,7 +3451,7 @@
         <v>37.7</v>
       </c>
       <c r="F134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
@@ -4171,6 +4171,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>